--- a/dokument/Copy of database(1).xlsx
+++ b/dokument/Copy of database(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\projects\laksamana\dokument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50C2C1F-CEC3-492A-B6B8-606447EE6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C66A3B-8F49-43CF-822C-CA28A3350A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18990" yWindow="0" windowWidth="8640" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>Abiseka</t>
   </si>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,6 +1070,9 @@
       <c r="B70" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C70" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
